--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_225.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_225.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,640 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_65</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0361998361998362</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:min7', 'F:7', 'Bb:maj6', 'G:min7'], ['Bb:maj6/5', 'G:min7', 'F:7', 'Bb:maj6']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:maj6', 'Ab:maj6'], ['Ab:maj6', 'Ab:maj6', 'Eb:7', 'Ab:maj6']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(11.12, 13.09), (2.39, 4.31)]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(37.34, 40.38), (38.55, 41.59)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['G:7', 'C:maj', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_78</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08709016393442623</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.6, 9.94), (30.94, 40.54)]</t>
+          <t>[['Bb', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(63.1, 64.5), (63.7, 66.7)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:00.320000', '0:00:09.540000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1301075268817204</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['D', 'D/5', 'D', 'D/5', 'G:maj6/5', 'G:maj6/2']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.6, 11.32)]</t>
+          <t>[['B', 'B/7', 'B/6', 'B/5', 'E:maj6', 'C#:min7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(25.26, 45.54)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:01:30.564195', '0:01:35.556485')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:00.440395', '0:00:04.406553')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>jaah_56</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jaah_77</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07380319148936171</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['Eb:7', 'Ab', 'F:7', 'Bb:min7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.64, 7.3)]</t>
+          <t>[['G:7', 'C', 'A:7', 'D:min7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(81.42, 90.04)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:14.300000', '0:00:17.020000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:51.800000', '0:00:55.760000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>isophonics_33</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_189</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08258928571428571</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['G', 'F:7', 'C']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(24.76, 30.02), (24.18, 27.66), (251.5, 255.38), (13.72, 18.34)]</t>
+          <t>[['D', 'C:7', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (9.78, 14.36), (44.0, 61.06), (1.54, 6.68)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:04.075124', '0:00:09.334444')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:02:04.058979', '0:02:09.550498')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.282051282051282</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'C/7', 'C/6'], ['C', 'F/5', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2196969696969697</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'B'], ['B', 'E', 'B']]</t>
+          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(69.901, 77.903), (5.121, 12.601)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.421269, 22.168299), (19.602494, 26.162131)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:13.740000', '0:00:16.300000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:08.240000', '0:00:13.460000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min/F', 'F', 'A#:min']]</t>
-        </is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5588235294117647</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['E/3', 'A', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(24.68, 28.56), (13.36, 18.32)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(19.98, 27.18), (8.44, 17.54)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:28.395907', '0:00:32.322199')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_295</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3466183574879227</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
-        </is>
+          <t>schubert-winterreise_201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'A', 'E', 'A']]</t>
+          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.094553, 20.870746)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(10.953139, 28.356495)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:37.820000', '0:00:42.820000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2385964912280702</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5892857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(111.92, 115.66)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(6.357029, 26.14043)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1027173913043478</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:min', 'A#:min/F']]</t>
-        </is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'F#:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(20.12, 22.98)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(41.74424, 46.109591)]</t>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1339285714285714</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj'], ['C#:maj', 'G#:maj', 'C#:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(72.64, 79.22), (0.78, 24.86)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.48, 8.48), (9.06, 10.78)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:25.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'D#/G', 'C:min/G'], ['C:min', 'F:min', 'C:min/G'], ['G', 'C:min', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'C', 'A:min'], ['A:min', 'D:min', 'A:min'], ['E', 'A:min', 'A:min'], ['A:min', 'E', 'A:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(65.34, 68.84), (9.6, 13.3), (15.86, 22.04), (14.62, 19.56)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(16.84, 26.811), (35.888, 38.359), (48.396, 52.899), (12.824, 20.865)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(18.32, 25.82)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1018099547511312</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E'], ['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B'], ['E/5', 'B', 'E']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.470042, 9.607823), (0.440395, 7.142059)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(141.130907, 147.945963), (30.035034, 41.761111)]</t>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_107</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:dim7', 'C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G#:dim7', 'A:maj', 'D:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(30.076213, 37.274399)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(19.7, 21.36)]</t>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_31</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_89</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1230650154798762</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'F#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(17.581738, 30.271443)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(15.880484, 21.522933)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
